--- a/张代林-工作日志.xlsx
+++ b/张代林-工作日志.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -51,6 +51,22 @@
   </si>
   <si>
     <t>完成查找农机遗留问题解决我是农户由于缓存导致发布信息后不刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成我的消息部分, 解决棘手未审核通过时跳转页面不对问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决修改农机时记住姓名和手机号码问题,对农机概况样式和实现方式进行改变, 将首页婚车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成历史位置部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成作业分析大部分内容和样式修改, 修改作业统计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,7 +446,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -464,34 +480,46 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>43753</v>
+        <v>43760</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>43754</v>
+        <v>43761</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>43755</v>
+        <v>43762</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>43756</v>
+        <v>43763</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">

--- a/张代林-工作日志.xlsx
+++ b/张代林-工作日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9165"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -67,6 +67,34 @@
   </si>
   <si>
     <t>完成作业分析大部分内容和样式修改, 修改作业统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改农机滴滴功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成实时监测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改遗留bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改新版app样式和功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改农机局样式和bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改遗留bug完成我是机手的筛选</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -123,7 +151,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -137,6 +165,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -446,17 +480,17 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="88.26953125" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="88.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -467,7 +501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>43759</v>
       </c>
@@ -478,7 +512,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>43760</v>
       </c>
@@ -489,7 +523,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>43761</v>
       </c>
@@ -500,7 +534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>43762</v>
       </c>
@@ -511,7 +545,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>43763</v>
       </c>
@@ -522,42 +556,78 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="4">
+        <v>43766</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="4">
+        <v>43767</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="4">
+        <v>43768</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="4">
+        <v>43769</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="5">
+        <v>43770</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="5">
+        <v>43771</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C15" s="3"/>
     </row>
   </sheetData>
@@ -573,7 +643,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -587,7 +657,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/张代林-工作日志.xlsx
+++ b/张代林-工作日志.xlsx
@@ -1,143 +1,452 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9165"/>
+    <workbookView windowWidth="21000" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>序号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>工作日志</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期一</t>
+  </si>
+  <si>
+    <t>完成查找农机遗留问题解决我是农户由于缓存导致发布信息后不刷新</t>
+  </si>
+  <si>
+    <t>星期二</t>
+  </si>
+  <si>
+    <t>完成我的消息部分, 解决棘手未审核通过时跳转页面不对问题</t>
+  </si>
+  <si>
+    <t>星期三</t>
+  </si>
+  <si>
+    <t>解决修改农机时记住姓名和手机号码问题,对农机概况样式和实现方式进行改变, 将首页婚车</t>
+  </si>
+  <si>
+    <t>星期四</t>
+  </si>
+  <si>
+    <t>完成历史位置部分</t>
   </si>
   <si>
     <t>星期五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>星期一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>星期二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>星期三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>星期四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成查找农机遗留问题解决我是农户由于缓存导致发布信息后不刷新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成我的消息部分, 解决棘手未审核通过时跳转页面不对问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解决修改农机时记住姓名和手机号码问题,对农机概况样式和实现方式进行改变, 将首页婚车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成历史位置部分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>完成作业分析大部分内容和样式修改, 修改作业统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>修改农机滴滴功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>完成实时监测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>修改遗留bug</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>修改新版app样式和功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>修改农机局样式和bug</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>星期六</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>修改遗留bug完成我是机手的筛选</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改农机局选择时间的样式, 以及完善退出登录清除section</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -145,13 +454,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -161,30 +712,77 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -233,7 +831,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -268,7 +866,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -471,26 +1069,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
     <col min="4" max="4" width="88.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="25.5" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,117 +1099,117 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
+    <row r="2" spans="1:3">
+      <c r="A2" s="3">
         <v>43759</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3">
+        <v>43760</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3">
+        <v>43761</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="4">
-        <v>43760</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" s="3">
+        <v>43762</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
-        <v>43761</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="4">
-        <v>43762</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" s="3">
+        <v>43763</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="4">
-        <v>43763</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="4">
+    <row r="7" spans="1:3">
+      <c r="A7" s="3">
         <v>43766</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="4">
+    <row r="8" spans="1:3">
+      <c r="A8" s="3">
         <v>43767</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="4">
+    <row r="9" spans="1:3">
+      <c r="A9" s="3">
         <v>43768</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>6</v>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="4">
+    <row r="10" spans="1:3">
+      <c r="A10" s="3">
         <v>43769</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" s="5">
         <v>43770</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>3</v>
+      <c r="B11" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12" s="5">
         <v>43771</v>
       </c>
@@ -622,45 +1220,87 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C15" s="3"/>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3">
+        <v>43766</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="3">
+        <v>43767</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3">
+        <v>43768</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3">
+        <v>43769</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="5">
+        <v>43770</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/张代林-工作日志.xlsx
+++ b/张代林-工作日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11670"/>
+    <workbookView windowWidth="20415" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>序号</t>
   </si>
@@ -30,55 +30,25 @@
     <t>星期一</t>
   </si>
   <si>
-    <t>完成查找农机遗留问题解决我是农户由于缓存导致发布信息后不刷新</t>
+    <t xml:space="preserve">
+完成合作社注册, 忘记密码以及我的资料中登录中添加短信验证码
+修改单车轮作重新查询后, 底部仍选中问题
+ 在农机局--我的资料页面修改头像后个人中心页面仍然显示原来的头像
+解决 作业监测---作业分析---实时监测页面只勾选图像点和地块查询，测量点和轨迹也会自动勾选并显示结果
+修改输入框限制问题
+</t>
   </si>
   <si>
     <t>星期二</t>
   </si>
   <si>
-    <t>完成我的消息部分, 解决棘手未审核通过时跳转页面不对问题</t>
-  </si>
-  <si>
     <t>星期三</t>
-  </si>
-  <si>
-    <t>解决修改农机时记住姓名和手机号码问题,对农机概况样式和实现方式进行改变, 将首页婚车</t>
   </si>
   <si>
     <t>星期四</t>
   </si>
   <si>
-    <t>完成历史位置部分</t>
-  </si>
-  <si>
     <t>星期五</t>
-  </si>
-  <si>
-    <t>完成作业分析大部分内容和样式修改, 修改作业统计</t>
-  </si>
-  <si>
-    <t>修改农机滴滴功能</t>
-  </si>
-  <si>
-    <t>完成实时监测</t>
-  </si>
-  <si>
-    <t>修改遗留bug</t>
-  </si>
-  <si>
-    <t>修改新版app样式和功能</t>
-  </si>
-  <si>
-    <t>修改农机局样式和bug</t>
-  </si>
-  <si>
-    <t>星期六</t>
-  </si>
-  <si>
-    <t>修改遗留bug完成我是机手的筛选</t>
-  </si>
-  <si>
-    <t>修改农机局选择时间的样式, 以及完善退出登录清除section</t>
   </si>
 </sst>
 </file>
@@ -86,13 +56,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,60 +74,59 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -169,6 +138,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -185,52 +184,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,14 +210,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,187 +224,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,16 +419,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,40 +476,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,157 +506,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -718,14 +681,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1075,13 +1035,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="11.625" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
@@ -1101,167 +1061,46 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3">
-        <v>43759</v>
+        <v>43780</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" s="3">
-        <v>43760</v>
+        <v>43781</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3">
-        <v>43761</v>
+        <v>43782</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3">
+        <v>43783</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="6">
+        <v>43784</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="3">
-        <v>43762</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="3">
-        <v>43763</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="3">
-        <v>43766</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="3">
-        <v>43767</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="3">
-        <v>43768</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="3">
-        <v>43769</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="5">
-        <v>43770</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="5">
-        <v>43771</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="3">
-        <v>43766</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="3">
-        <v>43767</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="3">
-        <v>43768</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="3">
-        <v>43769</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="5">
-        <v>43770</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/张代林-工作日志.xlsx
+++ b/张代林-工作日志.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WIN10\Desktop\常用的代码\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21000" windowHeight="11670"/>
+    <workbookView windowWidth="20415" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>序号</t>
   </si>
@@ -35,73 +30,81 @@
     <t>星期一</t>
   </si>
   <si>
+    <t>修改用于查看农机仍显示购买时间和价格问题</t>
+  </si>
+  <si>
+    <t>星期二</t>
+  </si>
+  <si>
+    <t>完成合作社的注册功能</t>
+  </si>
+  <si>
     <t>星期三</t>
   </si>
   <si>
+    <t>解决经纬度定位不准问题</t>
+  </si>
+  <si>
     <t>星期四</t>
   </si>
   <si>
+    <t>新增农户全部里面的状态</t>
+  </si>
+  <si>
     <t>星期五</t>
   </si>
   <si>
-    <t>星期二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改用于查看农机仍显示购买时间和价格问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成合作社的注册功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解决经纬度定位不准问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增农户全部里面的状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>配合测试修改农机局bug</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成实名注册的组织选择完成合作社登录隐藏维修订单完成农机局组织</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成注册忘记密码 以及合作社登录短信验证码的更换 
+配合测试修改bug</t>
+  </si>
+  <si>
+    <t>完成pc端农机局首页
+封装农机局组件</t>
+  </si>
+  <si>
+    <t>修改添加维修记录文字错误 以及修改密码成功后 没有清楚用户标识
+完成点击维修订单, 若没有认证直接跳转到认证页面
+通过websocket建立上连接</t>
   </si>
   <si>
     <t>完成所有的上传图片域时点击返回直接跳到上一个页面, 以及解决其中出现的问题
 完成普通用户使用验证码登录
 修改我的资料没有修改手机号码时不出现验证码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改添加维修记录文字错误 以及修改密码成功后 没有清楚用户标识
-完成点击维修订单, 若没有认证直接跳转到认证页面
-通过websocket建立上连接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成pc端农机局首页
-封装农机局组件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成注册忘记密码 以及合作社登录短信验证码的更换 
-配合测试修改bug</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成实名注册的组织选择完成合作社登录隐藏维修订单完成农机局组织</t>
+  </si>
+  <si>
+    <t>所有的开始时间和结束时间精确到分钟 已过期变为可以重新发布</t>
+  </si>
+  <si>
+    <t>机手申请完显示已申请</t>
+  </si>
+  <si>
+    <t>socketio 连接给出多人登录提示</t>
+  </si>
+  <si>
+    <t>完成首页的农活列表, 以及农活列表详情 解决合作社登录后点击订单按钮，显示农活订单，农机订单，维修订单，取消后再次点击时维修订单消</t>
+  </si>
+  <si>
+    <t>完成实名注册的组织选择完成合作社登录隐藏维修订单完成农机局组织修改需要多次返回问题</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,36 +113,352 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -147,13 +466,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -169,30 +730,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -241,7 +852,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -276,7 +887,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -479,26 +1090,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="11.625" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
     <col min="4" max="4" width="88.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="25.5" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -509,7 +1120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" s="3">
         <v>43773</v>
       </c>
@@ -517,54 +1128,54 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="3">
         <v>43774</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="3">
         <v>43775</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="3">
         <v>43776</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="7">
         <v>43777</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" s="3">
         <v>43780</v>
       </c>
@@ -572,84 +1183,147 @@
         <v>3</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="3">
         <v>43781</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="3">
         <v>43782</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" s="3">
         <v>43783</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="7">
         <v>43784</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>13</v>
-      </c>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3">
+        <v>43787</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3">
+        <v>43788</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3">
+        <v>43789</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3">
+        <v>43790</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="7">
+        <v>43791</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/张代林-工作日志.xlsx
+++ b/张代林-工作日志.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
     <t>序号</t>
   </si>
@@ -91,6 +91,21 @@
   </si>
   <si>
     <t>完成实名注册的组织选择完成合作社登录隐藏维修订单完成农机局组织修改需要多次返回问题</t>
+  </si>
+  <si>
+    <t>新增农业局顶部标题 搜索使用js下载图片的方法, 以及在ie下的兼容情况 修改首页中通知跳转问题修改在客服页面直接返回到登录页面问题解决个人中心页面组织机构显示历城区，首页左上角显示济南市问题改农机概况加载速度缓慢问题修改作业监测组织机构名称不同步修改问题 修改作业发布时间  从之前的小时再改为按天算修改历史位置</t>
+  </si>
+  <si>
+    <t>处理我是机手列表可能出现列表数据重复加载问题 修改默认应该选中当前组织问题添加已报价展示已报价</t>
+  </si>
+  <si>
+    <t>修改作业监测分页问题修改由于添加顶部标题导致内容被覆盖问题修改地图随着区域变化而变化解决跨区分页查询问题</t>
+  </si>
+  <si>
+    <t>切pc端农机分布部分, 以及地图展示</t>
+  </si>
+  <si>
+    <t>封装农机局使用的组件</t>
   </si>
 </sst>
 </file>
@@ -100,11 +115,11 @@
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,35 +129,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -150,23 +150,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,6 +180,90 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -187,82 +271,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -273,187 +281,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,39 +472,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -530,7 +505,55 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,21 +572,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -572,10 +580,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -584,137 +592,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -730,23 +738,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1096,10 +1107,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1286,6 +1297,61 @@
         <v>22</v>
       </c>
       <c r="D16" s="10"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3">
+        <v>43794</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3">
+        <v>43795</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3">
+        <v>43796</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3">
+        <v>43797</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="7">
+        <v>43798</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/张代林-工作日志.xlsx
+++ b/张代林-工作日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20415" windowHeight="11670"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
   <si>
     <t>序号</t>
   </si>
@@ -106,6 +106,15 @@
   </si>
   <si>
     <t>封装农机局使用的组件</t>
+  </si>
+  <si>
+    <t>开发pc端</t>
+  </si>
+  <si>
+    <t>添加历史位置 图标闪动</t>
+  </si>
+  <si>
+    <t>开发pc端, 调接口</t>
   </si>
 </sst>
 </file>
@@ -113,10 +122,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="20">
@@ -136,6 +145,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -143,22 +166,46 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,55 +234,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,18 +273,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -281,25 +290,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,157 +464,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,11 +486,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,23 +541,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,24 +573,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,10 +589,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -592,133 +601,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1107,10 +1116,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1351,6 +1360,61 @@
       </c>
       <c r="C21" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3">
+        <v>43801</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3">
+        <v>43802</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3">
+        <v>43803</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3">
+        <v>43804</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="7">
+        <v>43805</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/张代林-工作日志.xlsx
+++ b/张代林-工作日志.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="40">
   <si>
     <t>序号</t>
   </si>
@@ -115,6 +115,81 @@
   </si>
   <si>
     <t>开发pc端, 调接口</t>
+  </si>
+  <si>
+    <t>修改app在我的里面返回问题,
+ 完成我是机主, 我是机手, 我是农户页面的实现
+在发布农活  添加农机 发布招聘 维修工程师认证 机手认证  发布作业请求等页面
+判断未实名不能进行操作直接跳转到实名页面
+添加农机时机主姓名不能修改, 由后端返回
+完成添加农机不
+优化未实名跳转
+修改在作业监测-作业分析-单车轮作页面点击右侧“轨迹回放”图标无响应</t>
+  </si>
+  <si>
+    <t>修改薪酬, 只能输入数字, 不能输入范围
+完成农户中 农户需求  完成我是农户中我的订单
+完成新增我的预约, 以及取消预约
+修改机主以及机手页面,  优化未实名跳转到实名页面
+修改我的预约, 
+完成合作社以及普通用户 注册 同意协议</t>
+  </si>
+  <si>
+    <t>完成我的预约 , 预约跳转的详情页面不正确以及取消预约
+优化进入发布作业, 添加农机等页面没有实名直接跳转实名页面
+修改1369 作业监测页面“达标比率”、"平均深度”单位显示重复
+优化被挤下提示
+修改pc端农机概况定位中心偏差问题
+完成订单部分   
+四个页面的订单都要换 更改之前tabbar的方式
+调节注册页面字体加粗问题
+解决覆盖安装后点击我的跳转不正常
+修改注册成功后直接跳转到首页,   以及被挤提示由后端返回
+解决在我是机主页面点击个人中心图标，跳转到首页
+解决 实名认证页面选择所属区域时，同一区域名显示两次
+完成app轨迹回放中暂停和开始合为一个
+修改没有农机时, 不进入报价页面, 并给出提示暂无农机</t>
+  </si>
+  <si>
+    <t>对同意协议接口  同意协议由后端返回    
+调整注册页面返回问题 
+所寻并尝试更好的解决返回问题的方法
+优化找工作里面地区下拉框的样式以及体验
+优化所有的地图显示页面， 解决可能由于屏幕高度小出现, 需要点两次地图的问题
+尝试多种方式解决输入框挡住输入问题</t>
+  </si>
+  <si>
+    <t>调整轨迹回放样式问题
+解决在未添加农机状态下发布求助没有给出相关提示
+优化 发布招聘信息页面年龄只能输入数字
+给所有app的地图添加图层
+更改作业分析点击地块列表没有把id传过去
+解决绘制地块方法在ie10下不兼容问题</t>
+  </si>
+  <si>
+    <t>轨迹回放样式
+解决多次点击查询将不会出现弹窗问题
+修改轨迹回放样式问题 优化地区选择
+给查找农机添加下拉刷新功能 以及 缓存
+pc端作业分析, 单车轮作页面点击地块变色</t>
+  </si>
+  <si>
+    <t>添加测量点标准
+解决 工程师未认证状态下抢单不提示先进行工程师认证
+处理没有登录时候点击维修工程师没反应
+未登录点击维修工程师认证, 以及最新需求里面的立即报价</t>
+  </si>
+  <si>
+    <t>优化地图显示范围大小
+显示所属边界
+优化维修工程师认证提示
+完成pc端速度复选框</t>
+  </si>
+  <si>
+    <t>app端新增速度
+APP端个人中心，我的订单页面，合作社登录时我的订单里面显示农活订单，农机订单，求助订单
+调整返回按钮不好使问题
+修改农机概况放大比例问题</t>
   </si>
 </sst>
 </file>
@@ -122,10 +197,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="20">
@@ -138,14 +213,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,8 +226,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,20 +249,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -195,6 +257,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -203,17 +288,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,7 +311,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,38 +355,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -290,43 +365,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,139 +533,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,6 +556,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -508,6 +598,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -523,26 +633,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,26 +656,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -589,10 +664,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -601,137 +676,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -767,6 +842,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1116,10 +1197,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1416,6 +1497,108 @@
       <c r="C26" t="s">
         <v>30</v>
       </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3">
+        <v>43815</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3">
+        <v>43816</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3">
+        <v>43817</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3">
+        <v>43818</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="3">
+        <v>43822</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="3">
+        <v>43823</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="3">
+        <v>43824</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="3">
+        <v>43825</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="7">
+        <v>43826</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/张代林-工作日志.xlsx
+++ b/张代林-工作日志.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="49">
   <si>
     <t>序号</t>
   </si>
@@ -191,17 +191,46 @@
 调整返回按钮不好使问题
 修改农机概况放大比例问题</t>
   </si>
+  <si>
+    <t>解决 农机概况-农机分布-实时监测页面无地块作业信息时，速度信息弹窗中的折线图横轴也会显示作业时间段  完成 烘干作业 &gt; 作业详情</t>
+  </si>
+  <si>
+    <t xml:space="preserve">再次修改农机分布放大比例以及定位中心问题  
+封装组件
+</t>
+  </si>
+  <si>
+    <t>研究摄像头播放视频</t>
+  </si>
+  <si>
+    <t>与后端对接烘干部分接口</t>
+  </si>
+  <si>
+    <t>解决实时监测问题卡顿</t>
+  </si>
+  <si>
+    <t>完成websocket连接以及推送数据</t>
+  </si>
+  <si>
+    <t>修改在ie下面组织树形组件显示问题</t>
+  </si>
+  <si>
+    <t>修改部分在ie下面样式问题</t>
+  </si>
+  <si>
+    <t>优化视频播放 添加功能解决 作物烘干全年占比统计饼图不显示各类作业所占百分比</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -213,6 +242,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -220,7 +264,76 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,7 +348,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,108 +378,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,187 +394,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,40 +589,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,26 +623,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,6 +646,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -664,10 +693,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -676,137 +705,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -842,9 +871,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1197,10 +1223,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1597,8 +1623,113 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="3:3">
-      <c r="C36" s="13"/>
+    <row r="36" spans="1:3">
+      <c r="A36" s="3">
+        <v>43829</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="3">
+        <v>43830</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="3">
+        <v>43831</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="11"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="3">
+        <v>43832</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="7">
+        <v>43833</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="3">
+        <v>43836</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="3">
+        <v>43837</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="3">
+        <v>43838</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="3">
+        <v>43839</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="7">
+        <v>43840</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/张代林-工作日志.xlsx
+++ b/张代林-工作日志.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="58">
   <si>
     <t>序号</t>
   </si>
@@ -220,17 +220,55 @@
   <si>
     <t>优化视频播放 添加功能解决 作物烘干全年占比统计饼图不显示各类作业所占百分比</t>
   </si>
+  <si>
+    <t>更换ap字体大小  postcss</t>
+  </si>
+  <si>
+    <t>echart 的字体太大 
+ 车辆列表导出 传的数据不够</t>
+  </si>
+  <si>
+    <t>处理查询没有反应</t>
+  </si>
+  <si>
+    <t>烘干作业缓存</t>
+  </si>
+  <si>
+    <t>移动端顶部状态栏调整, 以及各个页面受影响的样式</t>
+  </si>
+  <si>
+    <t>星期天</t>
+  </si>
+  <si>
+    <t>pc端摄像头列表缓存 以及历史跳转来的页面出现问题移动端字体</t>
+  </si>
+  <si>
+    <t>解决 从其他页面返回个人中心出现图片不显示问题
+ 农户发布作业页面点击确认发布后提示发布成功，但无页面跳转
+统一在未登录情况下能访问的页面
+搜索关于海康威视播放插件在ie下滚动时发生闪烁问题
+修改轨迹回放在先选速度再播放时速度不能控制问题</t>
+  </si>
+  <si>
+    <t>添加平台客服无输入时的提示
+解决 农户发布作业页面点击确认发布后提示发布成功，但无页面跳转
+将农机
+局所有顶部导航栏下移
+与后端共同商讨有关websocket传送图片过长导致传
+送失败的问题
+解决 1366*768分辨率部分页面选择列表框内内容显示不修改资料”、“修改密码”显示不全  设备检测视频新增下载播放器</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -241,15 +279,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,7 +303,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,15 +375,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,17 +393,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -331,40 +407,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,13 +422,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -394,13 +432,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,13 +534,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,7 +588,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,139 +600,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,6 +623,32 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -599,17 +663,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,30 +685,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -671,17 +700,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -693,10 +731,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -705,133 +743,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1223,10 +1261,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1729,6 +1767,94 @@
       </c>
       <c r="C45" s="12" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="3">
+        <v>43843</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="3">
+        <v>43844</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="3">
+        <v>43845</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="3">
+        <v>43846</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="7">
+        <v>43847</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="7">
+        <v>43849</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="3">
+        <v>43871</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="3">
+        <v>43872</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
